--- a/Instrumentación/P2 graphs.xlsx
+++ b/Instrumentación/P2 graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\GitHub\ESCOM\Instrumentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A84CF96-0D6D-4119-9EF9-2061D29440A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281E486-4BD3-425F-858A-8BE9C6ABB60A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D2003C42-BE13-448D-BBF8-5AEFF8EC2175}"/>
   </bookViews>
@@ -2475,6 +2475,622 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica comparativa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de los voltajes de salida del CAS (teórico y práctico)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vo (práctico)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>3.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F464-49BD-B9C2-840CD21EF7E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vo (teórico)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>3.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9999999999999964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F464-49BD-B9C2-840CD21EF7E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360316720"/>
+        <c:axId val="2140321648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360316720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Vt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140321648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140321648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> (Volts)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360316720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4851,6 +5467,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B7AD56-ACE5-42A4-B8F0-5950E3E9935B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5153,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8860B484-1991-4D23-A009-EE91FD1094E3}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y62" sqref="Y62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,18 +5859,18 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f>(C2-2.73)/0.01</f>
+        <f t="shared" ref="A2:A22" si="0">(C2-2.73)/0.01</f>
         <v>16.000000000000014</v>
       </c>
       <c r="B2" s="2">
-        <f>(0.01 * A2) + 2.73</f>
+        <f t="shared" ref="B2:B22" si="1">(0.01 * A2) + 2.73</f>
         <v>2.89</v>
       </c>
       <c r="C2" s="2">
         <v>2.89</v>
       </c>
       <c r="D2" s="2">
-        <f>(10*B2)-27.3</f>
+        <f t="shared" ref="D2:D22" si="2">(10*B2)-27.3</f>
         <v>1.6000000000000014</v>
       </c>
       <c r="E2" s="2">
@@ -5238,24 +5892,24 @@
         <v>7.500000000000083E-2</v>
       </c>
       <c r="J2" s="5">
-        <f>I2</f>
+        <f t="shared" ref="J2:J22" si="3">I2</f>
         <v>7.500000000000083E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>(C3-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>16.999999999999993</v>
       </c>
       <c r="B3" s="2">
-        <f>(0.01 * A3) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
       <c r="C3">
         <v>2.9</v>
       </c>
       <c r="D3" s="2">
-        <f>(10*B3)-27.3</f>
+        <f t="shared" si="2"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="E3">
@@ -5265,36 +5919,36 @@
         <v>25</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G22" si="0">BIN2DEC(F3)</f>
+        <f t="shared" ref="G3:G22" si="4">BIN2DEC(F3)</f>
         <v>85</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H22" si="1">(G3/50)</f>
+        <f t="shared" ref="H3:H22" si="5">(G3/50)</f>
         <v>1.7</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I22" si="2">ABS((D3-E3)/D3)</f>
+        <f t="shared" ref="I3:I22" si="6">ABS((D3-E3)/D3)</f>
         <v>1.1764705882352565E-2</v>
       </c>
       <c r="J3" s="5">
-        <f>I3</f>
+        <f t="shared" si="3"/>
         <v>1.1764705882352565E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>(C4-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>18.000000000000014</v>
       </c>
       <c r="B4" s="2">
-        <f>(0.01 * A4) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.91</v>
       </c>
       <c r="C4">
         <v>2.91</v>
       </c>
       <c r="D4" s="2">
-        <f>(10*B4)-27.3</f>
+        <f t="shared" si="2"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="E4">
@@ -5304,19 +5958,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.82</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.4444444444444835E-2</v>
       </c>
       <c r="J4" s="5">
-        <f>I4</f>
+        <f t="shared" si="3"/>
         <v>4.4444444444444835E-2</v>
       </c>
       <c r="K4" s="2"/>
@@ -5328,18 +5982,18 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>(C5-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>18.999999999999993</v>
       </c>
       <c r="B5" s="2">
-        <f>(0.01 * A5) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
       <c r="C5" s="2">
         <v>2.92</v>
       </c>
       <c r="D5" s="2">
-        <f>(10*B5)-27.3</f>
+        <f t="shared" si="2"/>
         <v>1.8999999999999986</v>
       </c>
       <c r="E5" s="2">
@@ -5349,19 +6003,19 @@
         <v>14</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.68</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.7368421052630838E-2</v>
       </c>
       <c r="J5" s="5">
-        <f>I5</f>
+        <f t="shared" si="3"/>
         <v>4.7368421052630838E-2</v>
       </c>
       <c r="K5" s="2"/>
@@ -5373,18 +6027,18 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f>(C6-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>20.000000000000018</v>
       </c>
       <c r="B6" s="2">
-        <f>(0.01 * A6) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.93</v>
       </c>
       <c r="C6" s="2">
         <v>2.93</v>
       </c>
       <c r="D6" s="2">
-        <f>(10*B6)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E6" s="2">
@@ -5394,19 +6048,19 @@
         <v>30</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.98</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="J6" s="5">
-        <f>I6</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="K6" s="2"/>
@@ -5417,18 +6071,18 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>(C7-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>20.999999999999996</v>
       </c>
       <c r="B7" s="2">
-        <f>(0.01 * A7) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.94</v>
       </c>
       <c r="C7" s="2">
         <v>2.94</v>
       </c>
       <c r="D7" s="2">
-        <f>(10*B7)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.0999999999999979</v>
       </c>
       <c r="E7" s="2">
@@ -5438,19 +6092,19 @@
         <v>15</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.7619047619038195E-3</v>
       </c>
       <c r="J7" s="5">
-        <f>I7</f>
+        <f t="shared" si="3"/>
         <v>4.7619047619038195E-3</v>
       </c>
       <c r="K7" s="2"/>
@@ -5462,18 +6116,18 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f>(C8-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>22.000000000000018</v>
       </c>
       <c r="B8" s="2">
-        <f>(0.01 * A8) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
       <c r="C8" s="2">
         <v>2.95</v>
       </c>
       <c r="D8" s="2">
-        <f>(10*B8)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="E8" s="2">
@@ -5483,19 +6137,19 @@
         <v>26</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.36</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.8181818181818565E-2</v>
       </c>
       <c r="J8" s="5">
-        <f>I8</f>
+        <f t="shared" si="3"/>
         <v>6.8181818181818565E-2</v>
       </c>
       <c r="K8" s="2"/>
@@ -5507,18 +6161,18 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f>(C9-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>22.999999999999996</v>
       </c>
       <c r="B9" s="2">
-        <f>(0.01 * A9) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
       <c r="C9" s="2">
         <v>2.96</v>
       </c>
       <c r="D9" s="2">
-        <f>(10*B9)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="E9" s="2">
@@ -5528,19 +6182,19 @@
         <v>16</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.38</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3478260869562347E-3</v>
       </c>
       <c r="J9" s="5">
-        <f>I9</f>
+        <f t="shared" si="3"/>
         <v>4.3478260869562347E-3</v>
       </c>
       <c r="K9" s="2"/>
@@ -5552,18 +6206,18 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f>(C10-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>24.000000000000021</v>
       </c>
       <c r="B10" s="2">
-        <f>(0.01 * A10) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.97</v>
       </c>
       <c r="C10" s="2">
         <v>2.97</v>
       </c>
       <c r="D10" s="2">
-        <f>(10*B10)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.4000000000000021</v>
       </c>
       <c r="E10" s="2">
@@ -5573,19 +6227,19 @@
         <v>27</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.42</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.2500000000000833E-2</v>
       </c>
       <c r="J10" s="5">
-        <f>I10</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000833E-2</v>
       </c>
       <c r="K10" s="2"/>
@@ -5597,18 +6251,18 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f>(C11-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <f>(0.01 * A11) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.98</v>
       </c>
       <c r="C11" s="2">
         <v>2.98</v>
       </c>
       <c r="D11" s="2">
-        <f>(10*B11)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="E11" s="2">
@@ -5618,19 +6272,19 @@
         <v>28</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.56</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>I11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
@@ -5642,18 +6296,18 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>(C12-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B12" s="3">
-        <f>(0.01 * A12) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.98</v>
       </c>
       <c r="C12" s="3">
         <v>2.98</v>
       </c>
       <c r="D12" s="3">
-        <f>(10*B12)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="E12" s="3">
@@ -5663,19 +6317,19 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.02</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="J12" s="6">
-        <f>I12</f>
+        <f t="shared" si="3"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="K12" s="2"/>
@@ -5687,18 +6341,18 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f>(C13-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>26.000000000000021</v>
       </c>
       <c r="B13" s="2">
-        <f>(0.01 * A13) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
       <c r="C13" s="2">
         <v>2.99</v>
       </c>
       <c r="D13" s="2">
-        <f>(10*B13)-27.3</f>
+        <f t="shared" si="2"/>
         <v>2.6000000000000014</v>
       </c>
       <c r="E13" s="2">
@@ -5708,19 +6362,19 @@
         <v>10</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.54</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.9230769230769762E-2</v>
       </c>
       <c r="J13" s="5">
-        <f>I13</f>
+        <f t="shared" si="3"/>
         <v>6.9230769230769762E-2</v>
       </c>
       <c r="K13" s="2"/>
@@ -5732,18 +6386,18 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f>(C14-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>31.999999999999982</v>
       </c>
       <c r="B14" s="2">
-        <f>(0.01 * A14) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.05</v>
       </c>
       <c r="C14" s="2">
         <v>3.05</v>
       </c>
       <c r="D14" s="2">
-        <f>(10*B14)-27.3</f>
+        <f t="shared" si="2"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="E14" s="2">
@@ -5753,19 +6407,19 @@
         <v>18</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.36</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.1249999999999757E-2</v>
       </c>
       <c r="J14" s="5">
-        <f>I14</f>
+        <f t="shared" si="3"/>
         <v>3.1249999999999757E-2</v>
       </c>
       <c r="K14" s="2"/>
@@ -5777,18 +6431,18 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f>(C15-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>33.999999999999986</v>
       </c>
       <c r="B15" s="2">
-        <f>(0.01 * A15) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.07</v>
       </c>
       <c r="C15" s="2">
         <v>3.07</v>
       </c>
       <c r="D15" s="2">
-        <f>(10*B15)-27.3</f>
+        <f t="shared" si="2"/>
         <v>3.3999999999999986</v>
       </c>
       <c r="E15" s="2">
@@ -5798,19 +6452,19 @@
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>179</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.58</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.9411764705881999E-2</v>
       </c>
       <c r="J15" s="5">
-        <f>I15</f>
+        <f t="shared" si="3"/>
         <v>2.9411764705881999E-2</v>
       </c>
       <c r="K15" s="2"/>
@@ -5822,18 +6476,18 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f>(C16-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>37.000000000000007</v>
       </c>
       <c r="B16" s="2">
-        <f>(0.01 * A16) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
       <c r="C16" s="2">
         <v>3.1</v>
       </c>
       <c r="D16" s="2">
-        <f>(10*B16)-27.3</f>
+        <f t="shared" si="2"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="E16" s="2">
@@ -5843,19 +6497,19 @@
         <v>20</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>188</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.76</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.891891891891876E-2</v>
       </c>
       <c r="J16" s="5">
-        <f>I16</f>
+        <f t="shared" si="3"/>
         <v>1.891891891891876E-2</v>
       </c>
       <c r="K16" s="2"/>
@@ -5867,18 +6521,18 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f>(C17-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>37.999999999999986</v>
       </c>
       <c r="B17" s="2">
-        <f>(0.01 * A17) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.11</v>
       </c>
       <c r="C17" s="2">
         <v>3.11</v>
       </c>
       <c r="D17" s="2">
-        <f>(10*B17)-27.3</f>
+        <f t="shared" si="2"/>
         <v>3.7999999999999972</v>
       </c>
       <c r="E17" s="2">
@@ -5888,19 +6542,19 @@
         <v>21</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6315789473684955E-2</v>
       </c>
       <c r="J17" s="5">
-        <f>I17</f>
+        <f t="shared" si="3"/>
         <v>2.6315789473684955E-2</v>
       </c>
       <c r="K17" s="2"/>
@@ -5912,18 +6566,18 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f>(C18-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>39.999999999999993</v>
       </c>
       <c r="B18" s="2">
-        <f>(0.01 * A18) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
       <c r="C18" s="2">
         <v>3.13</v>
       </c>
       <c r="D18" s="2">
-        <f>(10*B18)-27.3</f>
+        <f t="shared" si="2"/>
         <v>3.9999999999999964</v>
       </c>
       <c r="E18" s="2">
@@ -5933,19 +6587,19 @@
         <v>22</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.24</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000000943E-2</v>
       </c>
       <c r="J18" s="5">
-        <f>I18</f>
+        <f t="shared" si="3"/>
         <v>3.0000000000000943E-2</v>
       </c>
       <c r="K18" s="2"/>
@@ -5957,18 +6611,18 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f>(C19-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>41.000000000000014</v>
       </c>
       <c r="B19" s="2">
-        <f>(0.01 * A19) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.14</v>
       </c>
       <c r="C19" s="2">
         <v>3.14</v>
       </c>
       <c r="D19" s="2">
-        <f>(10*B19)-27.3</f>
+        <f t="shared" si="2"/>
         <v>4.1000000000000014</v>
       </c>
       <c r="E19" s="2">
@@ -5978,19 +6632,19 @@
         <v>11</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3170731707313322E-3</v>
       </c>
       <c r="J19" s="5">
-        <f>I19</f>
+        <f t="shared" si="3"/>
         <v>7.3170731707313322E-3</v>
       </c>
       <c r="K19" s="2"/>
@@ -6002,18 +6656,18 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f>(C20-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>43.999999999999993</v>
       </c>
       <c r="B20" s="2">
-        <f>(0.01 * A20) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.17</v>
       </c>
       <c r="C20" s="2">
         <v>3.17</v>
       </c>
       <c r="D20" s="2">
-        <f>(10*B20)-27.3</f>
+        <f t="shared" si="2"/>
         <v>4.3999999999999986</v>
       </c>
       <c r="E20" s="2">
@@ -6023,19 +6677,19 @@
         <v>23</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.8181818181820789E-3</v>
       </c>
       <c r="J20" s="5">
-        <f>I20</f>
+        <f t="shared" si="3"/>
         <v>6.8181818181820789E-3</v>
       </c>
       <c r="K20" s="2"/>
@@ -6047,18 +6701,18 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f>(C21-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>45.999999999999993</v>
       </c>
       <c r="B21" s="2">
-        <f>(0.01 * A21) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.19</v>
       </c>
       <c r="C21" s="2">
         <v>3.19</v>
       </c>
       <c r="D21" s="2">
-        <f>(10*B21)-27.3</f>
+        <f t="shared" si="2"/>
         <v>4.5999999999999979</v>
       </c>
       <c r="E21" s="2">
@@ -6068,19 +6722,19 @@
         <v>12</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.74</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.5217391304342601E-3</v>
       </c>
       <c r="J21" s="5">
-        <f>I21</f>
+        <f t="shared" si="3"/>
         <v>6.5217391304342601E-3</v>
       </c>
       <c r="K21" s="2"/>
@@ -6092,18 +6746,18 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f>(C22-2.73)/0.01</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B22" s="2">
-        <f>(0.01 * A22) + 2.73</f>
+        <f t="shared" si="1"/>
         <v>3.23</v>
       </c>
       <c r="C22" s="2">
         <v>3.23</v>
       </c>
       <c r="D22" s="2">
-        <f>(10*B22)-27.3</f>
+        <f t="shared" si="2"/>
         <v>4.9999999999999964</v>
       </c>
       <c r="E22" s="2">
@@ -6113,19 +6767,19 @@
         <v>24</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1054273576010072E-16</v>
       </c>
       <c r="J22" s="5">
-        <f>I22</f>
+        <f t="shared" si="3"/>
         <v>7.1054273576010072E-16</v>
       </c>
     </row>
